--- a/Verbruikperinkomen/Non graphical.xlsx
+++ b/Verbruikperinkomen/Non graphical.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylan/Desktop/DataVisualisation/Verbruikperinkomen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0A3415F-DEC9-DF4F-A9D0-8F31F81642CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5EBDAF45-1AD5-C44A-824F-786A7B2B2A24}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19020" xr2:uid="{CA3475F6-3959-2645-ABBC-BE3434ED0239}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18880" xr2:uid="{CA3475F6-3959-2645-ABBC-BE3434ED0239}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -80,6 +80,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA540429-ABD3-E64A-AC2E-7F263D7A1970}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -406,7 +407,7 @@
     <col min="4" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -420,7 +421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -428,7 +429,7 @@
         <v>795032</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -436,7 +437,7 @@
         <v>812550</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -444,7 +445,7 @@
         <v>818243</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -452,7 +453,7 @@
         <v>823023</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -468,11 +469,12 @@
         <v>829231.2</v>
       </c>
       <c r="E6" s="2">
-        <f>SQRT(((B2-D6+B3-D6+B4-D6+B5-D6+B6-D6+B7-D6+B8-D6+B9-D6+B10-D6+B11-D6)^2)/10)</f>
-        <v>1.4725502860585132E-10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <f>_xlfn.STDEV.S(B2:B11)</f>
+        <v>16795.255810297542</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -482,8 +484,9 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -491,7 +494,7 @@
         <v>839394</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -499,7 +502,7 @@
         <v>839701</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2013</v>
       </c>
@@ -507,7 +510,7 @@
         <v>842733</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2014</v>
       </c>
